--- a/biology/Zoologie/Holbrookia_lacerata/Holbrookia_lacerata.xlsx
+++ b/biology/Zoologie/Holbrookia_lacerata/Holbrookia_lacerata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Holbrookia lacerata est une espèce de sauriens de la famille des Phrynosomatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Holbrookia lacerata est une espèce de sauriens de la famille des Phrynosomatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 aux États-Unis dans le Texas ;
 au Mexique dans le Coahuila, dans le Nuevo León et dans le Tamaulipas.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce lézard est terrestre et ovipare, les femelles pondant des œufs qu'elles enterrent. Il vit dans des zones assez plates et dégagées, désertiques ou arides, ou encore dans des prairies clairesemées[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce lézard est terrestre et ovipare, les femelles pondant des œufs qu'elles enterrent. Il vit dans des zones assez plates et dégagées, désertiques ou arides, ou encore dans des prairies clairesemées.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (18 février 2013)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (18 février 2013) :
 Holbrookia lacerata lacerata Cope, 1880
 Holbrookia lacerata subcaudalis Axtell, 1956</t>
         </is>
@@ -606,7 +624,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Axtell, 1956 : A solution to the long neglected Holbrookia lacerata problem, and the description of two new subspecies of Holbrookia. Bulletin of the Chicago Academy of Sciences, vol. 10, no 11, p. 163-179.
 Cope, 1880 : On the zoological position of Texas. Bulletin of the United States National Museum, vol. 17, p. 1-51 (texte intégral).</t>
